--- a/f.xlsx
+++ b/f.xlsx
@@ -516,7 +516,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -527,7 +527,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -540,7 +540,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="139" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A62" sqref="$A1:$XFD62"/>
+      <selection activeCell="A1" sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4"/>

--- a/f.xlsx
+++ b/f.xlsx
@@ -10,8 +10,8 @@
     <sheet name="CXCI2025012201" sheetId="26" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CXCI2025012201!$A$1:$AA$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CXCI2025012201!$A$1:$H$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CXCI2025012201!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CXCI2025012201!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,77 +30,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>SAY USD TWENTY-NINE THOUSAND EIGHT HUNDRED AND FORTY-SEVEN AND POINT THIRTY-EIGHT ONLY.</t>
-  </si>
-  <si>
-    <t>COUNTRY OF ORIGIN: CHINA</t>
-  </si>
-  <si>
-    <t>Payment Term:100% TT within 5 working days when Unicair(Holdings) Limited receive Goods.</t>
-  </si>
-  <si>
-    <t>Delivery Term:CIF</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Company Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD
-Account number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8110301012800584376
-Bank Name: China citic bank shenzhen branch
-Bank Address:8F,Citic security tower, zhongxin 4road, futian dist. futian shenzhen  china
-SWIFT No.: CIBKCNBJ518</t>
-    </r>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -110,9 +42,8 @@
     <numFmt numFmtId="178" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,23 +58,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -302,12 +216,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -503,98 +411,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -715,137 +537,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,9 +725,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,45 +741,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1337,13 +1120,13 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="139" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H5"/>
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="4.83636363636364" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.6636363636364" style="1" customWidth="1"/>
@@ -1368,76 +1151,9 @@
     <col min="26" max="26" width="8.83636363636364" style="1" customWidth="1"/>
     <col min="27" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData>
-    <row r="1" ht="28" customHeight="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" ht="28" customHeight="1" spans="1:8">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:9">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" ht="28" customHeight="1" spans="1:9">
-      <c r="A4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" ht="88" customHeight="1" spans="1:8">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A5:H5"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.392361111111111" right="0.156944444444444" top="0.511111111111111" bottom="0.195833333333333" header="0.431944444444444" footer="0.156944444444444"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
